--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43755</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44573</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>43755</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44342</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43755</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44573</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>43755</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44342</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43755</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44573</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>43755</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44342</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43755</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44573</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>43755</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44342</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43755</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44573</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>43755</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44342</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43755</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44573</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>43755</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44342</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43755</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44573</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>43755</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44342</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43755</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44573</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>43755</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44342</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43755</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44573</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>43755</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44342</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43755</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -631,27 +631,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KAVLINGE/artfynd/A 55942-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KAVLINGE/artfynd/A 55942-2019.xlsx", "A 55942-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KAVLINGE/kartor/A 55942-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KAVLINGE/kartor/A 55942-2019.png", "A 55942-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KAVLINGE/klagomål/A 55942-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KAVLINGE/klagomål/A 55942-2019.docx", "A 55942-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KAVLINGE/klagomålsmail/A 55942-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KAVLINGE/klagomålsmail/A 55942-2019.docx", "A 55942-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KAVLINGE/tillsyn/A 55942-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KAVLINGE/tillsyn/A 55942-2019.docx", "A 55942-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KAVLINGE/tillsynsmail/A 55942-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KAVLINGE/tillsynsmail/A 55942-2019.docx", "A 55942-2019")</f>
         <v/>
       </c>
     </row>
@@ -665,7 +665,7 @@
         <v>44573</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -718,27 +718,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KAVLINGE/artfynd/A 1481-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KAVLINGE/artfynd/A 1481-2022.xlsx", "A 1481-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KAVLINGE/kartor/A 1481-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KAVLINGE/kartor/A 1481-2022.png", "A 1481-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KAVLINGE/klagomål/A 1481-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KAVLINGE/klagomål/A 1481-2022.docx", "A 1481-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KAVLINGE/klagomålsmail/A 1481-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KAVLINGE/klagomålsmail/A 1481-2022.docx", "A 1481-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KAVLINGE/tillsyn/A 1481-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KAVLINGE/tillsyn/A 1481-2022.docx", "A 1481-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KAVLINGE/tillsynsmail/A 1481-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KAVLINGE/tillsynsmail/A 1481-2022.docx", "A 1481-2022")</f>
         <v/>
       </c>
     </row>
@@ -752,7 +752,7 @@
         <v>43755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>43755</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44342</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43755</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44573</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>43755</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44342</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43755</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44573</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>43755</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44342</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43755</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44573</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>43755</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44342</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43755</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44573</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>43755</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44342</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43755</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44573</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>43755</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44342</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43755</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44573</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>43755</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44342</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43755</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44573</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>43755</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44342</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43755</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44573</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>43755</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44342</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43755</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44573</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>43755</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44342</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
